--- a/biology/Zoologie/Échiquier_de_Russie/Échiquier_de_Russie.xlsx
+++ b/biology/Zoologie/Échiquier_de_Russie/Échiquier_de_Russie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Russie</t>
+          <t>Échiquier_de_Russie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia russiae
 L'Échiquier de Russie ou Échiquier d'Esper (Melanargia russiae) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Melanargia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Russie</t>
+          <t>Échiquier_de_Russie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,89 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia  russiae a été nommé par Eugen Johann Christoph Esper en 1783.
-Noms vernaculaires
-L'Échiquier de Russie ou Échiquier d'Esper se nomme Esper's White en anglais et Medioluto montañera en espagnol[1].
-Sous-espèces
-Melanargia russiae russiae dans le sud de la Russie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier de Russie ou Échiquier d'Esper se nomme Esper's White en anglais et Medioluto montañera en espagnol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanargia russiae russiae dans le sud de la Russie.
 Melanargia russiae caucasiaca Nordmann, 1851
 Melanargia russiae cleanthe ; Boisduval, 1833 ; en France dans les Alpes-de-Haute-Provence.
 Melanargia russiae japigia Cyrilli, 1787 ; en Italie.
-Melanargia russiae transcaspica Staudinger, 1901[1].
+Melanargia russiae transcaspica Staudinger, 1901.
 			Melanargia russiae japygia ♂
 			Melanargia russiae japygia ♂  △
 			Melanargia russiae japygia ♀
@@ -531,81 +615,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_de_Russie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon de taille moyenne qui présente un damier noir et blanc où domine le blanc.
-Le revers dessine en noir les limites des damiers avec un ocelle à l'apex des antérieures et une ligne d'ocelles aux postérieures tous ocre pupillés de blanc cerclé de noir.
-Chenille
-Les chenilles sont de couleur verte et leur tête soit verte soit marron[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_de_Russie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole de fin juin à mi-août en une seule génération[2].
-Plantes hôtes
-La chenille se nourrit de graminées, en particulier Poa (Poa annua, Poa trivalis), Brachypodium  (Brachypodium pinnatum, Brachypodium sylvatus), Bromus, Dactylis, Phleum, Stipa (Stipa pennata), Aegilops geniculata[1],[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_de_Russie</t>
+          <t>Échiquier_de_Russie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,17 +636,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de taille moyenne qui présente un damier noir et blanc où domine le blanc.
+Le revers dessine en noir les limites des damiers avec un ocelle à l'apex des antérieures et une ligne d'ocelles aux postérieures tous ocre pupillés de blanc cerclé de noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont de couleur verte et leur tête soit verte soit marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole de fin juin à mi-août en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de graminées, en particulier Poa (Poa annua, Poa trivalis), Brachypodium  (Brachypodium pinnatum, Brachypodium sylvatus), Bromus, Dactylis, Phleum, Stipa (Stipa pennata), Aegilops geniculata,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent sous forme de petits isolats dans le sud de l'Europe en Espagne dans le sud de la France, de l'Italie et de la Grèce puis en Asie mineure, dans le sud de la Russie, l'ouest de la Sibérie et le centre de l'Asie[1].
-En France métropolitaine il est présent dans les départements proches de la Méditerranée, Pyrénées-Orientales,  Aveyron, Lozère, Gard, Drôme, Vaucluse, Hautes-Alpes et Alpes-de-Haute-Provence[3].
-Biotope
-Il réside dans tous types de lieux herbus.
-Protection
-Il ne bénéficie pas de statut de protection spécifique.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent sous forme de petits isolats dans le sud de l'Europe en Espagne dans le sud de la France, de l'Italie et de la Grèce puis en Asie mineure, dans le sud de la Russie, l'ouest de la Sibérie et le centre de l'Asie.
+En France métropolitaine il est présent dans les départements proches de la Méditerranée, Pyrénées-Orientales,  Aveyron, Lozère, Gard, Drôme, Vaucluse, Hautes-Alpes et Alpes-de-Haute-Provence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans tous types de lieux herbus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_de_Russie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne bénéficie pas de statut de protection spécifique.
 </t>
         </is>
       </c>
